--- a/Shading Nets/sens_Increase in productivity with 100%/case_0.01.xlsx
+++ b/Shading Nets/sens_Increase in productivity with 100%/case_0.01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\New Cases\Shading Nets\sens_Increase in productivity with 100%\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Shading Nets\sens_Increase in productivity with 100%\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AA2762-745C-489A-9F8F-E9E91AC75436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF4635-5D4A-4399-BD7D-463113FA9CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Y" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="224">
   <si>
     <t>row</t>
   </si>
@@ -705,9 +705,6 @@
   </si>
   <si>
     <t>ref2: https://www.researchgate.net/publication/293009127_Physiological_Growth_Response_in_Seedlings_of_Arabica_Coffee_Genotypes_Under_Contrasting_Nursery_Microenvironments</t>
-  </si>
-  <si>
-    <t>0.5-1</t>
   </si>
 </sst>
 </file>
@@ -988,6 +985,10 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,10 +1009,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1343,7 +1340,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,23 +1353,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="39">
         <f>main!C18</f>
-        <v>537.5</v>
+        <v>0.99999999999998657</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,52 +1415,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="40">
         <f>-main!C19</f>
-        <v>-0.01</v>
-      </c>
-      <c r="H2" s="40" t="s">
+        <v>-1.8604651162790447E-5</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2169,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,7 +2385,7 @@
         <v>197</v>
       </c>
       <c r="C10" s="28">
-        <v>500</v>
+        <v>0.93023255813952233</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -2408,7 +2405,7 @@
       </c>
       <c r="C11" s="32">
         <f>C10/C8</f>
-        <v>1</v>
+        <v>1.8604651162790447E-3</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -2424,7 +2421,7 @@
       <c r="B12" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="33">
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -2455,14 +2452,14 @@
       <c r="B13" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="35">
         <v>0.01</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="36">
         <v>0</v>
       </c>
       <c r="G13" s="22">
@@ -2488,7 +2485,7 @@
       </c>
       <c r="C14" s="24">
         <f>C12*C10</f>
-        <v>500</v>
+        <v>0.93023255813952233</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>205</v>
@@ -2508,7 +2505,7 @@
       </c>
       <c r="C15" s="24">
         <f>C9/C10</f>
-        <v>2E-3</v>
+        <v>1.0750000000000146</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -2526,7 +2523,7 @@
       </c>
       <c r="C16" s="24">
         <f>C2*(C14*10^4/C3)^C5/10^6</f>
-        <v>537.5</v>
+        <v>0.99999999999998657</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>215</v>
@@ -2568,7 +2565,7 @@
       </c>
       <c r="C18" s="23">
         <f>C16</f>
-        <v>537.5</v>
+        <v>0.99999999999998657</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>215</v>
@@ -2590,7 +2587,7 @@
       </c>
       <c r="C19" s="31">
         <f>C13*C11</f>
-        <v>0.01</v>
+        <v>1.8604651162790447E-5</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -2628,17 +2625,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J33">
-        <f>(140-75)/5</f>
-        <v>13</v>
-      </c>
-      <c r="K33" s="42"/>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
